--- a/REGULAR/LONDONIO, CORINA.xlsx
+++ b/REGULAR/LONDONIO, CORINA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>PERIOD</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1068,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1102,7 +1111,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1175,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,7 +1235,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1301,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1364,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1462,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1521,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1586,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1629,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1704,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1890,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1956,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,7 +2014,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2080,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2136,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2211,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2254,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2320,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2376,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2474,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2537,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2603,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2972,12 +2981,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A6" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,7 +3151,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.625</v>
+        <v>9.375</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3152,7 +3161,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>10.625</v>
+        <v>12.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3366,15 +3375,17 @@
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D20" s="39">
         <v>4</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
@@ -3410,13 +3421,15 @@
         <v>45231</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
@@ -3428,13 +3441,15 @@
         <v>45261</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
@@ -3442,18 +3457,15 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
-        <v>45292</v>
+      <c r="A24" s="51" t="s">
+        <v>51</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G24" s="13"/>
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
@@ -3461,9 +3473,11 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B25" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -3472,14 +3486,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="39">
+        <v>2</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -3497,7 +3515,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3515,7 +3533,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3533,7 +3551,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3551,7 +3569,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3569,7 +3587,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3587,7 +3605,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3605,7 +3623,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3623,7 +3641,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3640,7 +3658,9 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="40">
+        <v>45597</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -5176,36 +5196,52 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
       <c r="D132" s="43"/>
-      <c r="E132" s="49"/>
+      <c r="E132" s="9"/>
       <c r="F132" s="15"/>
       <c r="G132" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H132" s="43"/>
-      <c r="I132" s="49"/>
+      <c r="I132" s="9"/>
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="49"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5371,7 +5407,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>16.25</v>
+        <v>21.75</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
